--- a/data/output/FV2504_FV2410/UTILMD/55051.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55051.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="187">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="187">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -704,6 +704,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U77" totalsRowShown="0">
+  <autoFilter ref="A1:U77"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -993,7 +1023,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4597,5 +4630,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55051.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55051.xlsx
@@ -913,7 +913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -936,6 +936,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -944,6 +947,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1386,7 +1392,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1750,7 +1756,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1896,7 +1902,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2098,7 +2104,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2406,7 +2412,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2606,7 +2612,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2980,7 +2986,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3288,7 +3294,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3464,26 +3470,26 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
         <v>167</v>
       </c>
       <c r="K43" s="6" t="s">
@@ -3492,23 +3498,23 @@
       <c r="L43" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P43" s="5"/>
+      <c r="P43" s="2"/>
       <c r="Q43" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5" t="s">
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="s">
         <v>167</v>
       </c>
       <c r="V43" s="6" t="s">
@@ -3692,54 +3698,54 @@
       <c r="V46" s="5"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5" t="s">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="2" t="s">
         <v>175</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O47" s="5" t="s">
+      <c r="O47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P47" s="5"/>
+      <c r="P47" s="2"/>
       <c r="Q47" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5" t="s">
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="V47" s="5" t="s">
+      <c r="V47" s="2" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3926,26 +3932,26 @@
       <c r="B51" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="L51" s="10" t="s">
         <v>179</v>
       </c>
       <c r="M51" s="5"/>
@@ -3963,33 +3969,33 @@
       <c r="A52" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="J52" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>179</v>
       </c>
       <c r="M52" s="5"/>
@@ -4007,33 +4013,33 @@
       <c r="A53" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="9" t="s">
+      <c r="J53" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10" t="s">
         <v>179</v>
       </c>
       <c r="M53" s="5"/>
@@ -4051,31 +4057,31 @@
       <c r="A54" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8" t="s">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8" t="s">
+      <c r="H54" s="9"/>
+      <c r="I54" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="J54" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K54" s="8"/>
-      <c r="L54" s="9" t="s">
+      <c r="J54" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K54" s="9"/>
+      <c r="L54" s="10" t="s">
         <v>179</v>
       </c>
       <c r="M54" s="5"/>
@@ -4093,31 +4099,31 @@
       <c r="A55" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8" t="s">
+      <c r="F55" s="9"/>
+      <c r="G55" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8" t="s">
+      <c r="H55" s="9"/>
+      <c r="I55" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="J55" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K55" s="8"/>
-      <c r="L55" s="9" t="s">
+      <c r="J55" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K55" s="9"/>
+      <c r="L55" s="10" t="s">
         <v>179</v>
       </c>
       <c r="M55" s="5"/>
@@ -4135,31 +4141,31 @@
       <c r="A56" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8" t="s">
+      <c r="F56" s="9"/>
+      <c r="G56" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8" t="s">
+      <c r="H56" s="9"/>
+      <c r="I56" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="J56" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="9" t="s">
+      <c r="J56" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K56" s="9"/>
+      <c r="L56" s="10" t="s">
         <v>179</v>
       </c>
       <c r="M56" s="5"/>
@@ -4177,31 +4183,31 @@
       <c r="A57" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8" t="s">
+      <c r="F57" s="9"/>
+      <c r="G57" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8" t="s">
+      <c r="H57" s="9"/>
+      <c r="I57" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="J57" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="9" t="s">
+      <c r="J57" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K57" s="9"/>
+      <c r="L57" s="10" t="s">
         <v>179</v>
       </c>
       <c r="M57" s="5"/>
@@ -4219,31 +4225,31 @@
       <c r="A58" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8" t="s">
+      <c r="F58" s="9"/>
+      <c r="G58" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8" t="s">
+      <c r="H58" s="9"/>
+      <c r="I58" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="J58" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="9" t="s">
+      <c r="J58" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K58" s="9"/>
+      <c r="L58" s="10" t="s">
         <v>179</v>
       </c>
       <c r="M58" s="5"/>
@@ -4271,29 +4277,29 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="M59" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O59" s="11" t="s">
+      <c r="O59" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11" t="s">
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11" t="s">
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="V59" s="11"/>
+      <c r="V59" s="13"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="5" t="s">
@@ -4309,35 +4315,35 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="M60" s="11" t="s">
+      <c r="M60" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="N60" s="11" t="s">
+      <c r="N60" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O60" s="11" t="s">
+      <c r="O60" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P60" s="11" t="s">
+      <c r="P60" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="Q60" s="11" t="s">
+      <c r="Q60" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="R60" s="11" t="s">
+      <c r="R60" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11" t="s">
+      <c r="S60" s="13"/>
+      <c r="T60" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="U60" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="V60" s="11"/>
+      <c r="U60" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="V60" s="13"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
@@ -4353,35 +4359,35 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P61" s="11" t="s">
+      <c r="P61" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q61" s="11" t="s">
+      <c r="Q61" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="R61" s="11" t="s">
+      <c r="R61" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11" t="s">
+      <c r="S61" s="13"/>
+      <c r="T61" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="U61" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="V61" s="11"/>
+      <c r="U61" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="V61" s="13"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -4397,33 +4403,33 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="P62" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11" t="s">
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11" t="s">
+      <c r="S62" s="13"/>
+      <c r="T62" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="U62" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="V62" s="11"/>
+      <c r="U62" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="V62" s="13"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -4439,33 +4445,33 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="P63" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11" t="s">
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11" t="s">
+      <c r="S63" s="13"/>
+      <c r="T63" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="U63" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="V63" s="11"/>
+      <c r="U63" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="V63" s="13"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="5" t="s">
@@ -4481,33 +4487,33 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="M64" s="11" t="s">
+      <c r="M64" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="N64" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O64" s="11" t="s">
+      <c r="O64" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="P64" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11" t="s">
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11" t="s">
+      <c r="S64" s="13"/>
+      <c r="T64" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="U64" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="V64" s="11"/>
+      <c r="U64" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="V64" s="13"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="5" t="s">
@@ -4523,33 +4529,33 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O65" s="11" t="s">
+      <c r="O65" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P65" s="11" t="s">
+      <c r="P65" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11" t="s">
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11" t="s">
+      <c r="S65" s="13"/>
+      <c r="T65" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="U65" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="V65" s="11"/>
+      <c r="U65" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="V65" s="13"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="5" t="s">
@@ -4565,33 +4571,33 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="N66" s="11" t="s">
+      <c r="N66" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O66" s="11" t="s">
+      <c r="O66" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P66" s="11" t="s">
+      <c r="P66" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11" t="s">
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11" t="s">
+      <c r="S66" s="13"/>
+      <c r="T66" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="U66" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="V66" s="11"/>
+      <c r="U66" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="V66" s="13"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="2" t="s">
@@ -4616,7 +4622,7 @@
         <v>176</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -4824,7 +4830,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5010,48 +5016,48 @@
       <c r="V74" s="5"/>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5" t="s">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E75" s="5"/>
+      <c r="E75" s="2"/>
       <c r="F75" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5" t="s">
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="K75" s="5"/>
+      <c r="K75" s="2"/>
       <c r="L75" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="M75" s="5" t="s">
+      <c r="M75" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5" t="s">
+      <c r="N75" s="2"/>
+      <c r="O75" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P75" s="5"/>
+      <c r="P75" s="2"/>
       <c r="Q75" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5" t="s">
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="V75" s="5"/>
+      <c r="V75" s="2"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="5" t="s">
